--- a/readme.xlsx
+++ b/readme.xlsx
@@ -400,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -443,8 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FAB4EB-1258-4DAA-9825-9F656F6BD357}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -985,11 +984,11 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="10"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="42" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="29" t="s">
@@ -998,11 +997,11 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="10"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -1011,11 +1010,11 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="10"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="11" t="s">
         <v>47</v>
       </c>
       <c r="E17" s="12" t="s">
@@ -1024,11 +1023,11 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="10"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="12" t="s">
@@ -1037,11 +1036,11 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="10"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -1050,11 +1049,11 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="10"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
